--- a/target/downloads/Tracking No & ETA File Format.xlsx
+++ b/target/downloads/Tracking No & ETA File Format.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>Truck No</t>
   </si>
@@ -40,6 +40,33 @@
   </si>
   <si>
     <t>ETA</t>
+  </si>
+  <si>
+    <t>7068</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>7051</t>
+  </si>
+  <si>
+    <t>7050</t>
+  </si>
+  <si>
+    <t>7048</t>
+  </si>
+  <si>
+    <t>7047</t>
+  </si>
+  <si>
+    <t>7037</t>
+  </si>
+  <si>
+    <t>7036</t>
+  </si>
+  <si>
+    <t>7035</t>
   </si>
 </sst>
 </file>
@@ -411,7 +438,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -432,9 +459,73 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C9"/>
   </ignoredErrors>
 </worksheet>
 </file>